--- a/static/reductions/journal.xlsx
+++ b/static/reductions/journal.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ЭтаКнига"/>
   <s:bookViews>
-    <s:workbookView activeTab="3"/>
+    <s:workbookView activeTab="4"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>№</t>
   </si>
@@ -171,13 +171,13 @@
     <t>громадсько-виховної роботи</t>
   </si>
   <si>
-    <t>Факультет: прикладна математика</t>
-  </si>
-  <si xml:space="preserve">
-    <t>Куратор: </t>
-  </si>
-  <si xml:space="preserve">
-    <t>Староста: </t>
+    <t>Факультет: Прикладної математики</t>
+  </si>
+  <si>
+    <t>Куратор: Лісовенко Ірина Дмитрівна</t>
+  </si>
+  <si>
+    <t>Староста: Фостій Христина</t>
   </si>
   <si>
     <t>Чернівці</t>
@@ -186,31 +186,37 @@
     <t>РОЗПОДІЛ ГРОМАДСЬКИХ ДОРУЧЕНЬ У ГРУПІ</t>
   </si>
   <si>
-    <t>1. Курс</t>
-  </si>
-  <si>
-    <t>2. Група</t>
-  </si>
-  <si>
-    <t>3. Староста</t>
-  </si>
-  <si>
-    <t>4. Заступник старости</t>
-  </si>
-  <si>
-    <t>5. Профгрупорг</t>
-  </si>
-  <si>
-    <t>6. Культурно-дозвіллєва робота</t>
-  </si>
-  <si>
-    <t>7. Спортивно-оздоровча робота</t>
-  </si>
-  <si>
-    <t>8. Редколегія</t>
-  </si>
-  <si>
-    <t>9. Інші доручення</t>
+    <t>1.Курс</t>
+  </si>
+  <si>
+    <t>2.Група</t>
+  </si>
+  <si>
+    <t>542б</t>
+  </si>
+  <si>
+    <t>3.Староста</t>
+  </si>
+  <si>
+    <t>Фостій Христина</t>
+  </si>
+  <si>
+    <t>4.Заступник старости</t>
+  </si>
+  <si>
+    <t>5.Профгрупорг</t>
+  </si>
+  <si>
+    <t>6.Культурно-дозвіллєва робота</t>
+  </si>
+  <si>
+    <t>7.Спортивно-оздоровча робота</t>
+  </si>
+  <si>
+    <t>8.Редколегія</t>
+  </si>
+  <si>
+    <t>9.Інші доручення</t>
   </si>
   <si>
     <t>ЗАГАЛЬНІ ВІДОМОСТІ ПРО СТУДЕНТІВ АКАДЕМІЧНОЇ ГРУПИ</t>
@@ -237,6 +243,21 @@
     <t>Місце праці та посада батьків</t>
   </si>
   <si>
+    <t>Фостій Руслан  Валерійович</t>
+  </si>
+  <si>
+    <t>укр</t>
+  </si>
+  <si>
+    <t>Одружений</t>
+  </si>
+  <si>
+    <t>Чернівці тел. +3809840335559</t>
+  </si>
+  <si>
+    <t>Фостій Валерій Михайлович безробітний, Фостій Інна Іванівна Домогосподарка</t>
+  </si>
+  <si>
     <t>Студент</t>
   </si>
   <si>
@@ -262,6 +283,22 @@
   </si>
   <si>
     <t>яку школу закінчив</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>+3809840335559</t>
+  </si>
+  <si>
+    <t>fostiiruslan2706@gmail.com</t>
+  </si>
+  <si>
+    <t>80985678454
+80945673456</t>
+  </si>
+  <si>
+    <t>Рашківська ЗОШ</t>
   </si>
   <si>
     <t>"Затверджую"</t>
@@ -382,7 +419,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
   <fonts count="29">
     <font>
       <name val="Arial Cyr"/>
@@ -752,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -906,18 +945,18 @@
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -933,18 +972,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,6 +1001,9 @@
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -1303,42 +1345,42 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:10">
       <c r="A1" s="78" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="2" s="30" spans="1:10">
       <c r="A2" s="41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="3" s="30" spans="1:10">
@@ -1559,11 +1601,11 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:3">
       <c r="A1" s="44" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B1" s="44" t="n"/>
       <c r="C1" s="44" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="20.25" r="2" s="3" spans="1:3">
@@ -1758,7 +1800,7 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="22.5" r="1" s="5" spans="1:2">
       <c r="A1" s="80" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="2" s="5" spans="1:2">
@@ -1836,15 +1878,15 @@
     <row customHeight="1" ht="25.5" r="27" s="3" spans="1:2"/>
     <row customHeight="1" ht="18.75" r="28" s="3" spans="1:2">
       <c r="A28" s="25" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="3" spans="1:2">
       <c r="B29" s="25" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="30" s="3" spans="1:2">
@@ -1864,7 +1906,7 @@
     </row>
     <row r="35" s="3" spans="1:2">
       <c r="B35" s="16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1885,15 +1927,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <s:pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0" r:id="rId1"/>
@@ -2183,7 +2225,7 @@
   <s:sheetPr codeName="Лист2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2267,8 +2309,8 @@
   <s:sheetPr codeName="Лист3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2286,62 +2328,72 @@
       <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="n"/>
+      <c r="B2" s="23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row customHeight="1" ht="39.95" r="3" s="3" spans="1:2">
       <c r="A3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="24" t="n"/>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row customHeight="1" ht="39.95" r="4" s="3" spans="1:2">
       <c r="A4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
+        <v>56</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row customHeight="1" ht="39.95" r="5" s="3" spans="1:2">
       <c r="A5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
+        <v>58</v>
+      </c>
+      <c r="B5" s="24" t="s"/>
     </row>
     <row customHeight="1" ht="39.95" r="6" s="3" spans="1:2">
       <c r="A6" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="24" t="s"/>
     </row>
     <row customHeight="1" ht="39.95" r="7" s="3" spans="1:2">
       <c r="A7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="24" t="s"/>
     </row>
     <row customHeight="1" ht="39.95" r="8" s="3" spans="1:2">
       <c r="A8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
+        <v>61</v>
+      </c>
+      <c r="B8" s="24" t="s"/>
     </row>
     <row customHeight="1" ht="39.75" r="9" s="3" spans="1:2">
       <c r="A9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="24" t="n"/>
-    </row>
-    <row customHeight="1" hidden="1" ht="39.75" r="10" s="3" spans="1:2">
-      <c r="A10" s="21" t="n"/>
-      <c r="B10" s="24" t="n"/>
+        <v>62</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="3" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row customHeight="1" ht="39.95" r="11" s="3" spans="1:2">
       <c r="A11" s="21" t="n"/>
       <c r="B11" s="24" t="n"/>
     </row>
     <row customHeight="1" ht="39.95" r="12" s="3" spans="1:2">
-      <c r="A12" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="A12" s="21" t="n"/>
       <c r="B12" s="24" t="n"/>
     </row>
     <row customHeight="1" ht="39.95" r="13" s="3" spans="1:2">
@@ -2392,7 +2444,7 @@
   <sheetData>
     <row customHeight="1" ht="24.95" r="1" s="3" spans="1:8">
       <c r="A1" s="60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="2" s="9" spans="1:8">
@@ -2400,25 +2452,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="3" s="7" spans="1:8">
@@ -2448,14 +2500,30 @@
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="3" spans="1:8">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="12" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
+      <c r="A4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="82" t="n">
+        <v>33782</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="3" spans="1:8">
       <c r="A5" s="11" t="n"/>
@@ -2624,47 +2692,65 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:24">
-      <c r="A1" s="62" t="n"/>
+      <c r="A1" s="62" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" s="62" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>81</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="3" spans="1:24"/>
     <row customHeight="1" ht="39.75" r="3" s="3" spans="1:24">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="49" t="n"/>
-      <c r="C3" s="49" t="n"/>
-      <c r="D3" s="50" t="n"/>
-      <c r="E3" s="50" t="n"/>
-      <c r="F3" s="82" t="n"/>
-      <c r="G3" s="49" t="n"/>
-      <c r="H3" s="49" t="n"/>
-      <c r="I3" s="49" t="n"/>
-      <c r="J3" s="49" t="n"/>
+      <c r="A3" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="50" t="s"/>
+      <c r="E3" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="49" t="s"/>
+      <c r="J3" s="49" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row customHeight="1" ht="51" r="4" s="3" spans="1:24">
       <c r="A4" s="49" t="n"/>
@@ -2672,7 +2758,7 @@
       <c r="C4" s="49" t="n"/>
       <c r="D4" s="50" t="n"/>
       <c r="E4" s="50" t="n"/>
-      <c r="F4" s="82" t="n"/>
+      <c r="F4" s="83" t="n"/>
       <c r="G4" s="49" t="n"/>
       <c r="H4" s="49" t="n"/>
       <c r="I4" s="49" t="n"/>
@@ -2684,7 +2770,7 @@
       <c r="C5" s="49" t="n"/>
       <c r="D5" s="50" t="n"/>
       <c r="E5" s="50" t="n"/>
-      <c r="F5" s="82" t="n"/>
+      <c r="F5" s="83" t="n"/>
       <c r="G5" s="49" t="n"/>
       <c r="H5" s="49" t="n"/>
       <c r="I5" s="49" t="n"/>
@@ -2696,7 +2782,7 @@
       <c r="C6" s="49" t="n"/>
       <c r="D6" s="50" t="n"/>
       <c r="E6" s="50" t="n"/>
-      <c r="F6" s="82" t="n"/>
+      <c r="F6" s="83" t="n"/>
       <c r="G6" s="49" t="n"/>
       <c r="H6" s="49" t="n"/>
       <c r="I6" s="49" t="n"/>
@@ -2720,7 +2806,7 @@
       <c r="C8" s="49" t="n"/>
       <c r="D8" s="50" t="n"/>
       <c r="E8" s="50" t="n"/>
-      <c r="F8" s="82" t="n"/>
+      <c r="F8" s="83" t="n"/>
       <c r="G8" s="49" t="n"/>
       <c r="H8" s="49" t="n"/>
       <c r="I8" s="49" t="n"/>
@@ -2732,7 +2818,7 @@
       <c r="C9" s="49" t="n"/>
       <c r="D9" s="50" t="n"/>
       <c r="E9" s="50" t="n"/>
-      <c r="F9" s="82" t="n"/>
+      <c r="F9" s="83" t="n"/>
       <c r="G9" s="49" t="n"/>
       <c r="H9" s="49" t="n"/>
       <c r="I9" s="49" t="n"/>
@@ -2744,7 +2830,7 @@
       <c r="C10" s="49" t="n"/>
       <c r="D10" s="50" t="n"/>
       <c r="E10" s="50" t="n"/>
-      <c r="F10" s="82" t="n"/>
+      <c r="F10" s="83" t="n"/>
       <c r="G10" s="49" t="n"/>
       <c r="H10" s="49" t="n"/>
       <c r="I10" s="49" t="n"/>
@@ -2768,7 +2854,7 @@
       <c r="C12" s="49" t="n"/>
       <c r="D12" s="50" t="n"/>
       <c r="E12" s="50" t="n"/>
-      <c r="F12" s="82" t="n"/>
+      <c r="F12" s="83" t="n"/>
       <c r="G12" s="49" t="n"/>
       <c r="H12" s="49" t="n"/>
       <c r="I12" s="49" t="n"/>
@@ -2780,7 +2866,7 @@
       <c r="C13" s="49" t="n"/>
       <c r="D13" s="50" t="n"/>
       <c r="E13" s="50" t="n"/>
-      <c r="F13" s="82" t="n"/>
+      <c r="F13" s="83" t="n"/>
       <c r="G13" s="49" t="n"/>
       <c r="H13" s="49" t="n"/>
       <c r="I13" s="49" t="n"/>
@@ -2792,7 +2878,7 @@
       <c r="C14" s="49" t="n"/>
       <c r="D14" s="50" t="n"/>
       <c r="E14" s="50" t="n"/>
-      <c r="F14" s="82" t="n"/>
+      <c r="F14" s="83" t="n"/>
       <c r="G14" s="49" t="n"/>
       <c r="H14" s="49" t="n"/>
       <c r="I14" s="49" t="n"/>
@@ -2804,7 +2890,7 @@
       <c r="C15" s="49" t="n"/>
       <c r="D15" s="50" t="n"/>
       <c r="E15" s="50" t="n"/>
-      <c r="F15" s="82" t="n"/>
+      <c r="F15" s="83" t="n"/>
       <c r="G15" s="49" t="n"/>
       <c r="H15" s="49" t="n"/>
       <c r="I15" s="49" t="n"/>
@@ -2816,7 +2902,7 @@
       <c r="C16" s="49" t="n"/>
       <c r="D16" s="50" t="n"/>
       <c r="E16" s="50" t="n"/>
-      <c r="F16" s="82" t="n"/>
+      <c r="F16" s="83" t="n"/>
       <c r="G16" s="49" t="n"/>
       <c r="H16" s="49" t="n"/>
       <c r="I16" s="49" t="n"/>
@@ -2828,7 +2914,7 @@
       <c r="C17" s="49" t="n"/>
       <c r="D17" s="50" t="n"/>
       <c r="E17" s="50" t="n"/>
-      <c r="F17" s="82" t="n"/>
+      <c r="F17" s="83" t="n"/>
       <c r="G17" s="49" t="n"/>
       <c r="H17" s="49" t="n"/>
       <c r="I17" s="49" t="n"/>
@@ -2840,7 +2926,7 @@
       <c r="C18" s="49" t="n"/>
       <c r="D18" s="50" t="n"/>
       <c r="E18" s="50" t="n"/>
-      <c r="F18" s="82" t="n"/>
+      <c r="F18" s="83" t="n"/>
       <c r="G18" s="49" t="n"/>
       <c r="H18" s="49" t="n"/>
       <c r="I18" s="49" t="n"/>
@@ -2852,7 +2938,7 @@
       <c r="C19" s="52" t="n"/>
       <c r="D19" s="53" t="n"/>
       <c r="E19" s="53" t="n"/>
-      <c r="F19" s="83" t="n"/>
+      <c r="F19" s="84" t="n"/>
       <c r="G19" s="52" t="n"/>
       <c r="H19" s="52" t="n"/>
       <c r="I19" s="52" t="n"/>
@@ -2864,7 +2950,7 @@
       <c r="C20" s="49" t="n"/>
       <c r="D20" s="50" t="n"/>
       <c r="E20" s="50" t="n"/>
-      <c r="F20" s="82" t="n"/>
+      <c r="F20" s="83" t="n"/>
       <c r="G20" s="49" t="n"/>
       <c r="H20" s="49" t="n"/>
       <c r="I20" s="49" t="n"/>
@@ -2921,22 +3007,22 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="2" spans="1:5">
       <c r="C1" s="70" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="2" s="2" spans="1:5">
       <c r="C2" s="71" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="3" s="2" spans="1:5">
       <c r="C3" s="71" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="4" s="27" spans="1:5">
       <c r="A4" s="67" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="20.1" r="5" s="27" spans="1:5">
@@ -2946,24 +3032,24 @@
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="6" s="28" spans="1:5">
       <c r="A6" s="68" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="37.5" r="7" s="29" spans="1:5">
       <c r="A7" s="31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="18.75" r="8" s="29" spans="1:5">
@@ -3304,7 +3390,7 @@
     <row customFormat="1" customHeight="1" ht="99.95" r="53" s="27" spans="1:5">
       <c r="A53" s="26" t="n"/>
       <c r="B53" s="26" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C53" s="26" t="n"/>
       <c r="D53" s="26" t="n"/>
@@ -3313,7 +3399,7 @@
     <row customFormat="1" customHeight="1" ht="18.75" r="54" s="27" spans="1:5">
       <c r="A54" s="26" t="n"/>
       <c r="B54" s="26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C54" s="69" t="n"/>
     </row>
@@ -3369,124 +3455,124 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="19.5" r="1" s="55" spans="1:24">
-      <c r="A1" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>92</v>
+      <c r="A1" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>104</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="2" s="56" spans="1:24">
-      <c r="A2" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="75" t="s">
-        <v>93</v>
+      <c r="A2" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>105</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="3" s="57" spans="1:24">
       <c r="A3" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="73" t="s">
-        <v>63</v>
+      <c r="N3" s="75" t="s">
+        <v>65</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="72" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" s="74" t="s">
+        <v>115</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="4" s="57" spans="1:24">
       <c r="C4" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="72" t="n">
+      <c r="E4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="73" t="n">
+      <c r="F4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="n">
+      <c r="H4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="72" t="n">
+      <c r="I4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="73" t="n">
+      <c r="J4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="72" t="n">
+      <c r="K4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="73" t="n">
+      <c r="L4" s="75" t="n">
         <v>2</v>
       </c>
       <c r="O4" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="73" t="n">
+      <c r="P4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="72" t="n">
+      <c r="Q4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="73" t="n">
+      <c r="R4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="S4" s="72" t="n">
+      <c r="S4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="73" t="n">
+      <c r="T4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="U4" s="72" t="n">
+      <c r="U4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="73" t="n">
+      <c r="V4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="W4" s="72" t="n">
+      <c r="W4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="73" t="n">
+      <c r="X4" s="75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3829,16 +3915,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:X1"/>
     <mergeCell ref="A2:L2"/>
@@ -3847,6 +3925,14 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/static/reductions/journal.xlsx
+++ b/static/reductions/journal.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ЭтаКнига"/>
   <s:bookViews>
-    <s:workbookView activeTab="4"/>
+    <s:workbookView activeTab="6"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>№</t>
   </si>
@@ -243,15 +243,24 @@
     <t>Місце праці та посада батьків</t>
   </si>
   <si>
+    <t>Фостій Христина Іванівна</t>
+  </si>
+  <si>
+    <t>укр</t>
+  </si>
+  <si>
+    <t>Одружений</t>
+  </si>
+  <si>
+    <t>Коломия тел. 3453464344234</t>
+  </si>
+  <si>
+    <t>Ілюк Олеся, Ілюк Іван</t>
+  </si>
+  <si>
     <t>Фостій Руслан  Валерійович</t>
   </si>
   <si>
-    <t>укр</t>
-  </si>
-  <si>
-    <t>Одружений</t>
-  </si>
-  <si>
     <t>Чернівці тел. +3809840335559</t>
   </si>
   <si>
@@ -286,6 +295,22 @@
   </si>
   <si>
     <t>710</t>
+  </si>
+  <si>
+    <t>3453464344234</t>
+  </si>
+  <si>
+    <t>test7@test.ru</t>
+  </si>
+  <si>
+    <t>Коломия</t>
+  </si>
+  <si>
+    <t>Володимирівна
+Іванович</t>
+  </si>
+  <si>
+    <t>Коломийська</t>
   </si>
   <si>
     <t>+3809840335559</t>
@@ -303,8 +328,8 @@
   <si>
     <t>"Затверджую"</t>
   </si>
-  <si xml:space="preserve">
-    <t>Завідувач кафедри </t>
+  <si>
+    <t>Завідувач кафедри Баловсяк Сергій Васильович</t>
   </si>
   <si>
     <t>"___"___________________20    р</t>
@@ -335,6 +360,9 @@
   </si>
   <si>
     <t>куратора</t>
+  </si>
+  <si>
+    <t>Лісовенко Ірина Дмитрівна</t>
   </si>
   <si>
     <t>ОБЛІК ВІДВІДУВАННЯ СТУДЕНТАМИ ЗАНЯТЬ У І СЕМЕСТРІ</t>
@@ -945,6 +973,9 @@
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -954,9 +985,6 @@
     <xf applyAlignment="1" borderId="8" fillId="4" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -972,18 +1000,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,13 +1021,13 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
@@ -1345,42 +1373,42 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:10">
       <c r="A1" s="78" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="2" s="30" spans="1:10">
       <c r="A2" s="41" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="3" s="30" spans="1:10">
@@ -1601,11 +1629,11 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:3">
       <c r="A1" s="44" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B1" s="44" t="n"/>
       <c r="C1" s="44" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="20.25" r="2" s="3" spans="1:3">
@@ -1799,94 +1827,94 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="22.5" r="1" s="5" spans="1:2">
-      <c r="A1" s="80" t="s">
-        <v>124</v>
+      <c r="A1" s="79" t="s">
+        <v>133</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="2" s="5" spans="1:2">
-      <c r="A2" s="80" t="n"/>
+      <c r="A2" s="79" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="4" s="3" spans="1:2">
-      <c r="A4" s="81" t="n"/>
+      <c r="A4" s="80" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="5" s="3" spans="1:2">
-      <c r="A5" s="79" t="n"/>
+      <c r="A5" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="6" s="3" spans="1:2">
-      <c r="A6" s="79" t="n"/>
+      <c r="A6" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="7" s="3" spans="1:2">
-      <c r="A7" s="79" t="n"/>
+      <c r="A7" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="8" s="3" spans="1:2">
-      <c r="A8" s="79" t="n"/>
+      <c r="A8" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="9" s="3" spans="1:2">
-      <c r="A9" s="79" t="n"/>
+      <c r="A9" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="10" s="3" spans="1:2">
-      <c r="A10" s="79" t="n"/>
+      <c r="A10" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="11" s="3" spans="1:2">
-      <c r="A11" s="79" t="n"/>
+      <c r="A11" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="12" s="3" spans="1:2">
-      <c r="A12" s="79" t="n"/>
+      <c r="A12" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="13" s="3" spans="1:2">
-      <c r="A13" s="79" t="n"/>
+      <c r="A13" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="14" s="3" spans="1:2">
-      <c r="A14" s="79" t="n"/>
+      <c r="A14" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="15" s="3" spans="1:2">
-      <c r="A15" s="79" t="n"/>
+      <c r="A15" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="16" s="3" spans="1:2">
-      <c r="A16" s="79" t="n"/>
+      <c r="A16" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="17" s="3" spans="1:2">
-      <c r="A17" s="79" t="n"/>
+      <c r="A17" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="18" s="3" spans="1:2">
-      <c r="A18" s="79" t="n"/>
+      <c r="A18" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="19" s="3" spans="1:2">
-      <c r="A19" s="79" t="n"/>
+      <c r="A19" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="20" s="3" spans="1:2">
-      <c r="A20" s="79" t="n"/>
+      <c r="A20" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="21" s="3" spans="1:2">
-      <c r="A21" s="79" t="n"/>
+      <c r="A21" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="22" s="3" spans="1:2">
-      <c r="A22" s="79" t="n"/>
+      <c r="A22" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="23" s="3" spans="1:2">
-      <c r="A23" s="79" t="n"/>
+      <c r="A23" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="24" s="3" spans="1:2">
-      <c r="A24" s="79" t="n"/>
+      <c r="A24" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="25" s="3" spans="1:2">
-      <c r="A25" s="79" t="n"/>
+      <c r="A25" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="26" s="3" spans="1:2">
-      <c r="A26" s="79" t="n"/>
+      <c r="A26" s="81" t="n"/>
     </row>
     <row customHeight="1" ht="25.5" r="27" s="3" spans="1:2"/>
     <row customHeight="1" ht="18.75" r="28" s="3" spans="1:2">
       <c r="A28" s="25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="3" spans="1:2">
       <c r="B29" s="25" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="30" s="3" spans="1:2">
@@ -1906,27 +1934,11 @@
     </row>
     <row r="35" s="3" spans="1:2">
       <c r="B35" s="16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -1936,6 +1948,22 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <s:pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0" r:id="rId1"/>
@@ -2309,7 +2337,7 @@
   <s:sheetPr codeName="Лист3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2501,13 +2529,13 @@
     </row>
     <row customHeight="1" ht="22.5" r="4" s="3" spans="1:8">
       <c r="A4" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="82" t="n">
-        <v>33782</v>
+        <v>33945</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>73</v>
@@ -2516,7 +2544,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>75</v>
@@ -2526,14 +2554,30 @@
       </c>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="3" spans="1:8">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="82" t="n">
+        <v>33782</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row customHeight="1" ht="22.5" r="6" s="3" spans="1:8">
       <c r="A6" s="11" t="n"/>
@@ -2659,7 +2703,7 @@
   <s:sheetPr codeName="Лист5"/>
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2667,7 +2711,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="3" width="5"/>
     <col customWidth="1" max="2" min="2" style="3" width="19.7109375"/>
-    <col customWidth="1" max="3" min="3" style="3" width="5.85546875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="7.5703125"/>
     <col max="4" min="4" style="3"/>
     <col customWidth="1" max="5" min="5" style="3" width="11.28515625"/>
     <col customWidth="1" max="6" min="6" style="3" width="15.140625"/>
@@ -2696,73 +2740,89 @@
         <v>55</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="64" t="s">
         <v>81</v>
       </c>
+      <c r="D1" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>84</v>
+      </c>
       <c r="G1" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" s="3" spans="1:24"/>
     <row customHeight="1" ht="39.75" r="3" s="3" spans="1:24">
       <c r="A3" s="49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="50" t="s"/>
       <c r="E3" s="50" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I3" s="49" t="s"/>
       <c r="J3" s="49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="51" r="4" s="3" spans="1:24">
-      <c r="A4" s="49" t="n"/>
-      <c r="B4" s="49" t="n"/>
-      <c r="C4" s="49" t="n"/>
-      <c r="D4" s="50" t="n"/>
-      <c r="E4" s="50" t="n"/>
-      <c r="F4" s="83" t="n"/>
-      <c r="G4" s="49" t="n"/>
-      <c r="H4" s="49" t="n"/>
-      <c r="I4" s="49" t="n"/>
-      <c r="J4" s="49" t="n"/>
+      <c r="A4" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="50" t="s"/>
+      <c r="E4" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="49" t="s"/>
+      <c r="J4" s="49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row customHeight="1" ht="39.75" r="5" s="3" spans="1:24">
       <c r="A5" s="49" t="n"/>
@@ -2972,16 +3032,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -3007,22 +3067,22 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="2" spans="1:5">
       <c r="C1" s="70" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="2" s="2" spans="1:5">
       <c r="C2" s="71" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="3" s="2" spans="1:5">
       <c r="C3" s="71" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="4" s="27" spans="1:5">
       <c r="A4" s="67" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="20.1" r="5" s="27" spans="1:5">
@@ -3032,24 +3092,24 @@
     </row>
     <row customFormat="1" customHeight="1" ht="30" r="6" s="28" spans="1:5">
       <c r="A6" s="68" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="37.5" r="7" s="29" spans="1:5">
       <c r="A7" s="31" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="18.75" r="8" s="29" spans="1:5">
@@ -3390,7 +3450,7 @@
     <row customFormat="1" customHeight="1" ht="99.95" r="53" s="27" spans="1:5">
       <c r="A53" s="26" t="n"/>
       <c r="B53" s="26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C53" s="26" t="n"/>
       <c r="D53" s="26" t="n"/>
@@ -3399,9 +3459,11 @@
     <row customFormat="1" customHeight="1" ht="18.75" r="54" s="27" spans="1:5">
       <c r="A54" s="26" t="n"/>
       <c r="B54" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="69" t="n"/>
+        <v>110</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3455,124 +3517,124 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="19.5" r="1" s="55" spans="1:24">
-      <c r="A1" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>104</v>
+      <c r="A1" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>113</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="2" s="56" spans="1:24">
-      <c r="A2" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>105</v>
+      <c r="A2" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="3" s="57" spans="1:24">
       <c r="A3" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>119</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="73" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" s="74" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="72" t="s">
+        <v>124</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="4" s="57" spans="1:24">
       <c r="C4" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="75" t="n">
+      <c r="D4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="74" t="n">
+      <c r="E4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="75" t="n">
+      <c r="F4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="74" t="n">
+      <c r="G4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="75" t="n">
+      <c r="H4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="75" t="n">
+      <c r="J4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="74" t="n">
+      <c r="K4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="75" t="n">
+      <c r="L4" s="73" t="n">
         <v>2</v>
       </c>
       <c r="O4" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="75" t="n">
+      <c r="P4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="74" t="n">
+      <c r="Q4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="75" t="n">
+      <c r="R4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="S4" s="74" t="n">
+      <c r="S4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="75" t="n">
+      <c r="T4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="U4" s="74" t="n">
+      <c r="U4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="75" t="n">
+      <c r="V4" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="W4" s="74" t="n">
+      <c r="W4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="75" t="n">
+      <c r="X4" s="73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3915,6 +3977,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="A1:L1"/>
@@ -3931,8 +3995,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/static/reductions/journal.xlsx
+++ b/static/reductions/journal.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>№</t>
   </si>
@@ -356,6 +356,12 @@
     <t>При-мітка</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>Підпис</t>
   </si>
   <si>
@@ -429,6 +435,9 @@
   </si>
   <si>
     <t>ЗВІТ ПРО ГРОМАДСЬКО-ВИХОВНУ РОБОТУ</t>
+  </si>
+  <si>
+    <t>123 (123)</t>
   </si>
   <si>
     <t>Куратор: Сопронюк Т. М.</t>
@@ -1373,42 +1382,42 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:10">
       <c r="A1" s="78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="2" s="30" spans="1:10">
       <c r="A2" s="41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="3" s="30" spans="1:10">
@@ -1417,11 +1426,21 @@
       <c r="C3" s="42" t="n"/>
       <c r="D3" s="42" t="n"/>
       <c r="E3" s="42" t="n"/>
-      <c r="F3" s="42" t="n"/>
-      <c r="G3" s="42" t="n"/>
-      <c r="H3" s="42" t="n"/>
-      <c r="I3" s="42" t="n"/>
-      <c r="J3" s="42" t="n"/>
+      <c r="F3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="42" t="n">
+        <v>123</v>
+      </c>
+      <c r="J3" s="42" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="39.95" r="4" s="30" spans="1:10">
       <c r="A4" s="42" t="n"/>
@@ -1629,11 +1648,11 @@
   <sheetData>
     <row customHeight="1" ht="22.5" r="1" s="3" spans="1:3">
       <c r="A1" s="44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="44" t="n"/>
       <c r="C1" s="44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row customHeight="1" ht="20.25" r="2" s="3" spans="1:3">
@@ -1828,7 +1847,7 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="22.5" r="1" s="5" spans="1:2">
       <c r="A1" s="79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="22.5" r="2" s="5" spans="1:2">
@@ -1838,7 +1857,9 @@
       <c r="A4" s="80" t="n"/>
     </row>
     <row customHeight="1" ht="18.95" r="5" s="3" spans="1:2">
-      <c r="A5" s="81" t="n"/>
+      <c r="A5" s="81" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row customHeight="1" ht="18.95" r="6" s="3" spans="1:2">
       <c r="A6" s="81" t="n"/>
@@ -1906,15 +1927,15 @@
     <row customHeight="1" ht="25.5" r="27" s="3" spans="1:2"/>
     <row customHeight="1" ht="18.75" r="28" s="3" spans="1:2">
       <c r="A28" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="3" spans="1:2">
       <c r="B29" s="25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="30" s="3" spans="1:2">
@@ -1934,7 +1955,7 @@
     </row>
     <row r="35" s="3" spans="1:2">
       <c r="B35" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2799,9 @@
       <c r="C3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="50" t="s"/>
+      <c r="D3" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="E3" s="50" t="s">
         <v>90</v>
       </c>
@@ -2806,7 +2829,9 @@
       <c r="C4" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="50" t="s"/>
+      <c r="D4" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="E4" s="50" t="s">
         <v>95</v>
       </c>
@@ -3130,11 +3155,21 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="24.95" r="9" s="30" spans="1:5">
-      <c r="A9" s="32" t="n"/>
-      <c r="B9" s="33" t="n"/>
-      <c r="C9" s="33" t="n"/>
-      <c r="D9" s="33" t="n"/>
-      <c r="E9" s="33" t="n"/>
+      <c r="A9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="24.95" r="10" s="30" spans="1:5">
       <c r="A10" s="32" t="n"/>
@@ -3450,7 +3485,7 @@
     <row customFormat="1" customHeight="1" ht="99.95" r="53" s="27" spans="1:5">
       <c r="A53" s="26" t="n"/>
       <c r="B53" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" s="26" t="n"/>
       <c r="D53" s="26" t="n"/>
@@ -3459,10 +3494,10 @@
     <row customFormat="1" customHeight="1" ht="18.75" r="54" s="27" spans="1:5">
       <c r="A54" s="26" t="n"/>
       <c r="B54" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3518,18 +3553,18 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="19.5" r="1" s="55" spans="1:24">
       <c r="A1" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="2" s="56" spans="1:24">
       <c r="A2" s="75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M2" s="75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="3" s="57" spans="1:24">
@@ -3540,19 +3575,19 @@
         <v>65</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M3" s="76" t="s">
         <v>104</v>
@@ -3561,19 +3596,19 @@
         <v>65</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U3" s="72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W3" s="72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="4" s="57" spans="1:24">
@@ -3639,56 +3674,152 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="5" s="3" spans="1:24">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="40" t="n"/>
-      <c r="C5" s="34" t="n"/>
-      <c r="D5" s="38" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="38" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="38" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="38" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="38" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="40" t="n"/>
-      <c r="O5" s="34" t="n"/>
-      <c r="P5" s="38" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="38" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="38" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="38" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="38" t="n"/>
+      <c r="A5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="24.95" r="6" s="3" spans="1:24">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="40" t="n"/>
-      <c r="C6" s="34" t="n"/>
-      <c r="D6" s="38" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="38" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="38" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="38" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="38" t="n"/>
-      <c r="M6" s="10" t="n"/>
-      <c r="N6" s="40" t="n"/>
-      <c r="O6" s="34" t="n"/>
-      <c r="P6" s="38" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="38" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="38" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="38" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="38" t="n"/>
+      <c r="A6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="24.95" r="7" s="3" spans="1:24">
       <c r="A7" s="10" t="n"/>
